--- a/data-raw/01_public_parameters.xlsx
+++ b/data-raw/01_public_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CRCFILE12\gcupples\PREDiCT\PartSA_PREDiCT_Public\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PACER\PREDiCT\PREDiCT_e\PartSA Model\PartSA_repHTA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="158">
   <si>
     <t>parameter</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>switch_test</t>
-  </si>
-  <si>
-    <t>switch_check_QALYs</t>
   </si>
   <si>
     <t>switch_summary</t>
@@ -1780,7 +1777,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="6">
         <v>4.3499999999999996</v>
@@ -2294,7 +2291,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="6">
         <v>0.5</v>
@@ -3493,7 +3490,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="42">
         <v>9</v>
@@ -4237,10 +4234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4300,7 +4297,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="6">
         <v>23</v>
@@ -4335,14 +4332,6 @@
         <v>142</v>
       </c>
       <c r="B11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4375,23 +4364,23 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4501,7 +4490,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -4585,7 +4574,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -4611,7 +4600,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -4637,7 +4626,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -4689,7 +4678,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -5529,7 +5518,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5888,7 +5877,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>0.78800000000000003</v>
@@ -5907,7 +5896,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>0.64200000000000002</v>

--- a/data-raw/01_public_parameters.xlsx
+++ b/data-raw/01_public_parameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27904"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PACER\PREDiCT\PREDiCT_e\PartSA Model\PartSA_repHTA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B808DE77A3F5A9D781095B350AD65C4E172367A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C667E983-D7D1-4230-9C65-2EFF41F85889}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="871"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="19" r:id="rId1"/>
@@ -26,8 +27,22 @@
     <sheet name="3.5_TrialWeights" sheetId="9" r:id="rId12"/>
     <sheet name="3.6_TTOT" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -38,15 +53,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="93">
   <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>time_horizon</t>
+  </si>
+  <si>
+    <t>cycle_length</t>
+  </si>
+  <si>
+    <t>n_psa</t>
+  </si>
+  <si>
+    <t>discount_cost</t>
+  </si>
+  <si>
+    <t>discount_effect</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>switch_observed</t>
+  </si>
+  <si>
+    <t>switch_test</t>
+  </si>
+  <si>
+    <t>switch_summary</t>
+  </si>
+  <si>
+    <t>switch_plot</t>
+  </si>
+  <si>
+    <t>v_state_names</t>
+  </si>
+  <si>
+    <t>PFS, Progressed, Dead</t>
+  </si>
+  <si>
+    <t>v_treat_names</t>
+  </si>
+  <si>
+    <t>SoC, Entrectinib</t>
+  </si>
+  <si>
+    <t>v_test_exclude</t>
+  </si>
+  <si>
     <t>parameter</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>dist</t>
   </si>
   <si>
@@ -62,6 +125,9 @@
     <t>notes</t>
   </si>
   <si>
+    <t>c_D</t>
+  </si>
+  <si>
     <t>Weekly</t>
   </si>
   <si>
@@ -71,10 +137,52 @@
     <t>na</t>
   </si>
   <si>
+    <t>c_care_P</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>entrectinib pharmacoeconomic report, NICE, table 70, p.131</t>
+  </si>
+  <si>
+    <t>c_care_pfs_treat</t>
+  </si>
+  <si>
+    <t>entrectinib pharmacoeconomic report, NICE, table 70, p.130</t>
+  </si>
+  <si>
+    <t>c_care_pfs_SoC</t>
+  </si>
+  <si>
+    <t>c_AE_SoC</t>
+  </si>
+  <si>
     <t>Single</t>
   </si>
   <si>
-    <t>uniform</t>
+    <t>c_admin_treat</t>
+  </si>
+  <si>
+    <t>entrectinib pharmacoeconomic report, CADTH, p.157</t>
+  </si>
+  <si>
+    <t>c_pack_treat</t>
+  </si>
+  <si>
+    <t>entrectinib pharmacoeconomic report, CADTH, p.155</t>
+  </si>
+  <si>
+    <t>c_AE_treat</t>
+  </si>
+  <si>
+    <t>c_test_SoC</t>
+  </si>
+  <si>
+    <t>c_unit_test</t>
+  </si>
+  <si>
+    <t>https://store.lifelabs.com/bc/hereditary-cancer-testing/product/hereditary-cancer-testing-bc</t>
   </si>
   <si>
     <t>tumour</t>
@@ -111,18 +219,105 @@
 Breakdown presented in CostbyTreatment tab.</t>
   </si>
   <si>
+    <t>entrectinib pharmacoeconomic report, NICE, table 57, p.119</t>
+  </si>
+  <si>
+    <t>CADTH pharmacoeconomic report, table 9 p. 184</t>
+  </si>
+  <si>
+    <t>Cancer of unknown primary</t>
+  </si>
+  <si>
+    <t>Cholangiocarcinoma</t>
+  </si>
+  <si>
+    <t>Endometrial</t>
+  </si>
+  <si>
+    <t>Head and Neck</t>
+  </si>
+  <si>
+    <t>Neuroblastoma</t>
+  </si>
+  <si>
+    <t>Ovarian</t>
+  </si>
+  <si>
+    <t>u_D</t>
+  </si>
+  <si>
+    <t>CADTH pharmacoeconomic review, p. 156/157</t>
+  </si>
+  <si>
+    <t>u_pfs_treat</t>
+  </si>
+  <si>
+    <t>u_P_treat</t>
+  </si>
+  <si>
+    <t>u_pfs_SoC</t>
+  </si>
+  <si>
+    <t>u_P_SoC</t>
+  </si>
+  <si>
     <t>PFS</t>
   </si>
   <si>
+    <t>dist_pfs</t>
+  </si>
+  <si>
+    <t>par1_pfs</t>
+  </si>
+  <si>
+    <t>par2_pfs</t>
+  </si>
+  <si>
+    <t>par3_pfs</t>
+  </si>
+  <si>
     <t>OS</t>
   </si>
   <si>
+    <t>dist_os</t>
+  </si>
+  <si>
+    <t>par1_os</t>
+  </si>
+  <si>
+    <t>par2_os</t>
+  </si>
+  <si>
+    <t>par3_os</t>
+  </si>
+  <si>
     <t>truncated normal</t>
   </si>
   <si>
+    <t>entrectinib pharmacoeconomic report, NICE, Table 43, p.99</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>at_risk_pfs</t>
+  </si>
+  <si>
+    <t>t_max_pfs</t>
+  </si>
+  <si>
+    <t>at_risk_os</t>
+  </si>
+  <si>
+    <t>t_max_os</t>
+  </si>
+  <si>
     <t xml:space="preserve">truncated normal </t>
   </si>
   <si>
+    <t>entrectinib pharmacoeconomic report, CADTH, table 10, p.185</t>
+  </si>
+  <si>
     <t>beta</t>
   </si>
   <si>
@@ -132,197 +327,17 @@
     <t>CADTH pharmacoeconomic review, table 12, p.187</t>
   </si>
   <si>
-    <t>Cancer of unknown primary</t>
-  </si>
-  <si>
-    <t>Cholangiocarcinoma</t>
-  </si>
-  <si>
-    <t>Endometrial</t>
-  </si>
-  <si>
-    <t>Head and Neck</t>
-  </si>
-  <si>
-    <t>Neuroblastoma</t>
-  </si>
-  <si>
-    <t>Ovarian</t>
-  </si>
-  <si>
-    <t>CADTH pharmacoeconomic review, p. 156/157</t>
-  </si>
-  <si>
     <t>ttot</t>
   </si>
   <si>
     <t>CADTH pharmacoeconomic report, table 17, p.70</t>
-  </si>
-  <si>
-    <t>https://store.lifelabs.com/bc/hereditary-cancer-testing/product/hereditary-cancer-testing-bc</t>
-  </si>
-  <si>
-    <t>entrectinib pharmacoeconomic report, CADTH, p.155</t>
-  </si>
-  <si>
-    <t>entrectinib pharmacoeconomic report, CADTH, p.157</t>
-  </si>
-  <si>
-    <t>entrectinib pharmacoeconomic report, NICE, table 57, p.119</t>
-  </si>
-  <si>
-    <t>entrectinib pharmacoeconomic report, NICE, table 70, p.130</t>
-  </si>
-  <si>
-    <t>entrectinib pharmacoeconomic report, NICE, table 70, p.131</t>
-  </si>
-  <si>
-    <t>entrectinib pharmacoeconomic report, NICE, Table 43, p.99</t>
-  </si>
-  <si>
-    <t>entrectinib pharmacoeconomic report, CADTH, table 10, p.185</t>
-  </si>
-  <si>
-    <t>c_D</t>
-  </si>
-  <si>
-    <t>c_care_P</t>
-  </si>
-  <si>
-    <t>c_AE_SoC</t>
-  </si>
-  <si>
-    <t>c_test_SoC</t>
-  </si>
-  <si>
-    <t>c_care_pfs_SoC</t>
-  </si>
-  <si>
-    <t>u_D</t>
-  </si>
-  <si>
-    <t>u_pfs_SoC</t>
-  </si>
-  <si>
-    <t>u_P_SoC</t>
-  </si>
-  <si>
-    <t>dist_pfs</t>
-  </si>
-  <si>
-    <t>par1_pfs</t>
-  </si>
-  <si>
-    <t>par2_pfs</t>
-  </si>
-  <si>
-    <t>par3_pfs</t>
-  </si>
-  <si>
-    <t>dist_os</t>
-  </si>
-  <si>
-    <t>par1_os</t>
-  </si>
-  <si>
-    <t>par2_os</t>
-  </si>
-  <si>
-    <t>par3_os</t>
-  </si>
-  <si>
-    <t>at_risk_pfs</t>
-  </si>
-  <si>
-    <t>t_max_pfs</t>
-  </si>
-  <si>
-    <t>at_risk_os</t>
-  </si>
-  <si>
-    <t>t_max_os</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>time_horizon</t>
-  </si>
-  <si>
-    <t>cycle_length</t>
-  </si>
-  <si>
-    <t>n_psa</t>
-  </si>
-  <si>
-    <t>discount_cost</t>
-  </si>
-  <si>
-    <t>discount_effect</t>
-  </si>
-  <si>
-    <t>switch_observed</t>
-  </si>
-  <si>
-    <t>switch_test</t>
-  </si>
-  <si>
-    <t>switch_summary</t>
-  </si>
-  <si>
-    <t>switch_plot</t>
-  </si>
-  <si>
-    <t>PFS, Progressed, Dead</t>
-  </si>
-  <si>
-    <t>SoC, Entrectinib</t>
-  </si>
-  <si>
-    <t>c_care_pfs_treat</t>
-  </si>
-  <si>
-    <t>c_admin_treat</t>
-  </si>
-  <si>
-    <t>c_pack_treat</t>
-  </si>
-  <si>
-    <t>c_AE_treat</t>
-  </si>
-  <si>
-    <t>u_pfs_treat</t>
-  </si>
-  <si>
-    <t>u_P_treat</t>
-  </si>
-  <si>
-    <t>v_state_names</t>
-  </si>
-  <si>
-    <t>v_treat_names</t>
-  </si>
-  <si>
-    <t>v_test_exclude</t>
-  </si>
-  <si>
-    <t>c_unit_test</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>CADTH pharmacoeconomic report, table 9 p. 184</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -398,44 +413,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -447,7 +445,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,105 +790,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <f>1/52</f>
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="6">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -901,14 +898,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -920,59 +917,59 @@
     <col min="1023" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -983,8 +980,8 @@
       <c r="D2">
         <v>2.5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
+      <c r="E2" t="s">
+        <v>79</v>
       </c>
       <c r="F2">
         <v>2.4</v>
@@ -993,7 +990,7 @@
         <v>6.8</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -1004,8 +1001,8 @@
       <c r="K2">
         <v>2.5</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
+      <c r="L2" t="s">
+        <v>86</v>
       </c>
       <c r="M2">
         <v>16</v>
@@ -1014,27 +1011,27 @@
         <v>6.8</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
         <v>0.7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
+      <c r="E3" t="s">
+        <v>88</v>
       </c>
       <c r="F3">
         <v>9.1</v>
@@ -1043,19 +1040,19 @@
         <v>3.9</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
+        <v>27</v>
+      </c>
+      <c r="I3">
         <v>0.92</v>
       </c>
-      <c r="J3" s="3">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="J3">
+        <v>27</v>
+      </c>
+      <c r="K3">
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M3">
         <v>11.96</v>
@@ -1064,27 +1061,27 @@
         <v>1.04</v>
       </c>
       <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
         <v>0.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>11.8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
+      <c r="E4" t="s">
+        <v>79</v>
       </c>
       <c r="F4">
         <v>11.8</v>
@@ -1093,19 +1090,19 @@
         <v>2.7</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3">
+        <v>27</v>
+      </c>
+      <c r="I4">
         <v>0.5</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>22</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>26</v>
+      <c r="L4" t="s">
+        <v>79</v>
       </c>
       <c r="M4">
         <v>22</v>
@@ -1114,15 +1111,15 @@
         <v>6.6</v>
       </c>
       <c r="O4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -1133,8 +1130,8 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
+      <c r="E5" t="s">
+        <v>79</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -1143,7 +1140,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>0.75</v>
@@ -1155,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M5">
         <v>9.75</v>
@@ -1164,15 +1161,15 @@
         <v>3.25</v>
       </c>
       <c r="O5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -1181,10 +1178,10 @@
         <v>5.2</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
       </c>
       <c r="F6">
         <v>5.2</v>
@@ -1193,7 +1190,7 @@
         <v>5.2</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -1202,10 +1199,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
       </c>
       <c r="M6">
         <v>8.8000000000000007</v>
@@ -1214,15 +1211,15 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="O6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -1233,8 +1230,8 @@
       <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
+      <c r="E7" t="s">
+        <v>79</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1243,7 +1240,7 @@
         <v>1.8</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>0.5</v>
@@ -1254,8 +1251,8 @@
       <c r="K7">
         <v>10</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>26</v>
+      <c r="L7" t="s">
+        <v>79</v>
       </c>
       <c r="M7">
         <v>19</v>
@@ -1264,65 +1261,65 @@
         <v>3.1</v>
       </c>
       <c r="O7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
         <v>0.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8">
         <v>8.0299999999999994</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>8.0299999999999994</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
         <v>0.5</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>39.61</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8">
         <v>39.61</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>39.61</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -1333,8 +1330,8 @@
       <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
+      <c r="E9" t="s">
+        <v>79</v>
       </c>
       <c r="F9">
         <v>10.1</v>
@@ -1343,7 +1340,7 @@
         <v>4.7</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <v>0.5</v>
@@ -1354,8 +1351,8 @@
       <c r="K9">
         <v>10</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>26</v>
+      <c r="L9" t="s">
+        <v>79</v>
       </c>
       <c r="M9">
         <v>23.9</v>
@@ -1364,73 +1361,61 @@
         <v>9.4</v>
       </c>
       <c r="O9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="6">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
         <v>0.5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
         <v>0.5</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <v>17.23</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10">
         <v>17.23</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10">
         <v>17.23</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1439,140 +1424,140 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="22">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11">
         <v>0.40100000000000002</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>47</v>
       </c>
       <c r="B3">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>48</v>
       </c>
       <c r="B4">
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>49</v>
       </c>
       <c r="B5">
         <v>20.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>51</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>53</v>
       </c>
       <c r="B9">
         <v>23.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>11.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>6.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>5.6</v>
@@ -1584,14 +1569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1599,134 +1584,94 @@
     <col min="5" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10">
         <v>14</v>
       </c>
-      <c r="B2" s="22">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="21">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="21">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="21">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="21">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="21">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="21">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1735,71 +1680,71 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9">
         <f>11.54/12</f>
         <v>0.96166666666666656</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="16">
+        <v>26</v>
+      </c>
+      <c r="E2" s="9">
         <f>11/12</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1808,50 +1753,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1859,14 +1800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1876,68 +1817,68 @@
     <col min="1022" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8">
         <v>139.41999999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <f>C3*0.8</f>
@@ -1948,24 +1889,24 @@
         <v>167.30399999999997</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8">
         <v>104.86</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <f>C4*0.8</f>
@@ -1976,52 +1917,52 @@
         <v>125.83199999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8">
         <v>133.49</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
         <f>C5*0.8</f>
         <v>106.79200000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <f>C5*1.2</f>
         <v>160.18800000000002</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="14">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8">
         <v>1494.01</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <f>C6*0.8</f>
@@ -2032,76 +1973,76 @@
         <v>1792.8119999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15">
+        <v>25</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15">
+        <v>25</v>
+      </c>
+      <c r="C8">
         <v>2002</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2002</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="14">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8">
         <v>1494.01</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <f>C9*0.8</f>
@@ -2112,66 +2053,66 @@
         <v>1792.8119999999999</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="14">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>89</v>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="17">
+        <v>35</v>
+      </c>
+      <c r="C11">
         <v>950</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>950</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
@@ -2181,14 +2122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="6" width="10.7109375" customWidth="1"/>
@@ -2196,227 +2137,227 @@
     <col min="1022" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>264.36</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D9" si="0">B2*0.8</f>
         <v>211.48800000000003</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <f t="shared" ref="E2:E9" si="1">B2*1.2</f>
         <v>317.23200000000003</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>266.29000000000002</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
         <v>213.03200000000004</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>319.548</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>242.92</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>194.33600000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>291.50399999999996</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>276.93</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>221.54400000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>332.31599999999997</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
         <v>242.78</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>194.22400000000002</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>291.33600000000001</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>315.38</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>252.304</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>378.45599999999996</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>243.02</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>194.41600000000003</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>291.62400000000002</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>142.88</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>114.304</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>171.45599999999999</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2426,14 +2367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="6" width="10.7109375" customWidth="1"/>
@@ -2442,237 +2383,237 @@
     <col min="1022" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>552.32333333333304</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>552.32333333333304</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>1172.78</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>1172.78</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>761.29666666666697</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>761.29666666666697</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>2386.45166666667</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2386.45166666667</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1729.7349999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1729.7349999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>443.26333333333298</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>443.26333333333298</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
         <f>(58.65+35.38)/2</f>
         <v>47.015000000000001</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
         <f>B8</f>
         <v>47.015000000000001</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1070.60625</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>1070.60625</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J12" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2681,51 +2622,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>45</v>
       </c>
       <c r="B2">
         <v>139.01</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <f>B2*0.8</f>
@@ -2736,171 +2677,171 @@
         <v>166.81199999999998</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
       </c>
       <c r="B3">
         <v>116.94</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <f t="shared" ref="D3:D9" si="0">B3*0.8</f>
         <v>93.552000000000007</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <f t="shared" ref="E3:E9" si="1">B3*1.2</f>
         <v>140.328</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>49</v>
       </c>
       <c r="B5">
         <v>142.52000000000001</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>114.01600000000002</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>171.024</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>51</v>
       </c>
       <c r="B6">
         <v>183.3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>146.64000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>219.96</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>52</v>
       </c>
       <c r="B7">
         <v>139.46</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>111.56800000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>167.352</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>3.07</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -2910,11 +2851,11 @@
         <f t="shared" si="1"/>
         <v>3.6839999999999997</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>43</v>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2923,354 +2864,352 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="6" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="44.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="24">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="13">
         <v>8429497.0099750627</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
         <f t="shared" ref="D2" si="0">B2*0.8</f>
         <v>6743597.6079800501</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <f t="shared" ref="E2" si="1">B2*1.2</f>
         <v>10115396.411970075</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="13">
         <v>3335467</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <f t="shared" ref="D3:D15" si="2">B3*0.8</f>
         <v>2668373.6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <f t="shared" ref="E3:E15" si="3">B3*1.2</f>
         <v>4002560.4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
         <v>1643</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="2"/>
         <v>1314.4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <f t="shared" si="3"/>
         <v>1971.6</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="13">
         <v>5139639</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="2"/>
         <v>4111711.2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <f t="shared" si="3"/>
         <v>6167566.7999999998</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="24">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="13">
         <v>1034081</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="2"/>
         <v>827264.8</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <f t="shared" si="3"/>
         <v>1240897.2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="24">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13">
         <v>2189416</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="2"/>
         <v>1751532.8</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <f t="shared" si="3"/>
         <v>2627299.1999999997</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="24">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="13">
         <v>1870088</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="2"/>
         <v>1496070.4000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <f t="shared" si="3"/>
         <v>2244105.6</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="13">
         <v>2377651</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="2"/>
         <v>1902120.8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <f t="shared" si="3"/>
         <v>2853181.1999999997</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="13">
         <v>538461</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="2"/>
         <v>430768.80000000005</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <f t="shared" si="3"/>
         <v>646153.19999999995</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="24">
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="13">
         <v>700000</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="2"/>
         <v>560000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <f t="shared" si="3"/>
         <v>840000</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="13">
         <v>736842</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="2"/>
         <v>589473.6</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <f t="shared" si="3"/>
         <v>884210.4</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="24">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="13">
         <v>736842</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="2"/>
         <v>589473.6</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <f t="shared" si="3"/>
         <v>884210.4</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="24">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="13">
         <v>269231</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="2"/>
         <v>215384.80000000002</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <f t="shared" si="3"/>
         <v>323077.2</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="24">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="13">
         <v>451612</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="2"/>
         <v>361289.60000000003</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <f t="shared" si="3"/>
         <v>541934.4</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>10</v>
+      <c r="F15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3280,14 +3219,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="6" width="10.7109375" customWidth="1"/>
@@ -3295,130 +3234,127 @@
     <col min="1022" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>0.78800000000000003</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="10">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7">
         <f>B3*0.9</f>
         <v>0.70920000000000005</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <f>B3*1.1</f>
         <v>0.86680000000000013</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0.64200000000000002</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
         <f>B4*0.9</f>
         <v>0.57779999999999998</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <f>B4*1.1</f>
         <v>0.70620000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>54</v>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0.78800000000000003</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
         <f>B5*0.9</f>
         <v>0.70920000000000005</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <f>B5*1.1</f>
         <v>0.86680000000000013</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>55</v>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0.64200000000000002</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7">
         <f>B6*0.9</f>
         <v>0.57779999999999998</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <f>B6*1.1</f>
         <v>0.70620000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3427,14 +3363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
@@ -3443,53 +3379,53 @@
     <col min="1023" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>2.63</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
+      <c r="C2" t="s">
+        <v>79</v>
       </c>
       <c r="D2">
         <v>2.63</v>
@@ -3498,13 +3434,13 @@
         <v>2.63</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>9.07</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
+      <c r="H2" t="s">
+        <v>79</v>
       </c>
       <c r="I2">
         <v>9.07</v>
@@ -3513,21 +3449,21 @@
         <v>9.07</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>4.3499999999999996</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="D3">
         <v>4.3499999999999996</v>
@@ -3536,13 +3472,13 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>13.8</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
+      <c r="H3" t="s">
+        <v>79</v>
       </c>
       <c r="I3">
         <v>13.8</v>
@@ -3551,21 +3487,21 @@
         <v>13.8</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>4.55</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="D4">
         <v>4.55</v>
@@ -3574,13 +3510,13 @@
         <v>4.55</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>30.95</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
+      <c r="H4" t="s">
+        <v>79</v>
       </c>
       <c r="I4">
         <v>30.95</v>
@@ -3589,21 +3525,21 @@
         <v>30.95</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>3.75</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="D5">
         <v>3.75</v>
@@ -3612,13 +3548,13 @@
         <v>3.75</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>10.65</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
+      <c r="H5" t="s">
+        <v>79</v>
       </c>
       <c r="I5">
         <v>10.65</v>
@@ -3627,21 +3563,21 @@
         <v>10.65</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>5.2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
+      <c r="C6" t="s">
+        <v>79</v>
       </c>
       <c r="D6">
         <v>5.2</v>
@@ -3650,13 +3586,13 @@
         <v>5.2</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
+      <c r="H6" t="s">
+        <v>79</v>
       </c>
       <c r="I6">
         <v>8.8000000000000007</v>
@@ -3665,21 +3601,21 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>3.9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
+      <c r="C7" t="s">
+        <v>79</v>
       </c>
       <c r="D7">
         <v>3.9</v>
@@ -3688,13 +3624,13 @@
         <v>3.9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>14.3</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
+      <c r="H7" t="s">
+        <v>79</v>
       </c>
       <c r="I7">
         <v>14.3</v>
@@ -3703,59 +3639,59 @@
         <v>14.3</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
         <v>8.0299999999999994</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
         <v>8.0299999999999994</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>8.0299999999999994</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
         <v>39.61</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
         <v>39.61</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8">
         <v>39.61</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>3.03</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
       <c r="D9">
         <v>3.03</v>
@@ -3764,13 +3700,13 @@
         <v>3.03</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>12.18</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
+      <c r="H9" t="s">
+        <v>79</v>
       </c>
       <c r="I9">
         <v>12.18</v>
@@ -3779,48 +3715,48 @@
         <v>12.18</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="6">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
         <v>4.3499999999999996</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
         <v>17.23</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10">
         <v>17.23</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10">
         <v>17.23</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>46</v>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/01_public_parameters.xlsx
+++ b/data-raw/01_public_parameters.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27904"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PACER\PREDiCT\PREDiCT_e\PartSA Model\PartSA_repHTA\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CRCFILE12\gcupples\PREDiCT\PartSA_repHTA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B808DE77A3F5A9D781095B350AD65C4E172367A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C667E983-D7D1-4230-9C65-2EFF41F85889}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="871"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="19" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="3.5_TrialWeights" sheetId="9" r:id="rId12"/>
     <sheet name="3.6_TTOT" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -336,8 +335,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,7 +444,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,19 +789,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -810,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -818,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -827,7 +826,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -835,7 +834,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -843,7 +842,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -851,7 +850,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -859,7 +858,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -867,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -875,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -883,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -898,14 +897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -917,7 +916,7 @@
     <col min="1023" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -967,7 +966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1424,20 +1423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1569,14 +1568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1584,7 +1583,7 @@
     <col min="5" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1607,7 +1606,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1616,7 +1615,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1641,7 +1640,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1680,20 +1679,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -1753,19 +1752,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1800,14 +1799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -1817,7 +1816,7 @@
     <col min="1022" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1866,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1875,18 +1874,18 @@
         <v>25</v>
       </c>
       <c r="C3" s="8">
-        <v>139.41999999999999</v>
+        <v>127.23357437878371</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3">
         <f>C3*0.8</f>
-        <v>111.536</v>
+        <v>101.78685950302697</v>
       </c>
       <c r="F3">
         <f>C3*1.2</f>
-        <v>167.30399999999997</v>
+        <v>152.68028925454044</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1895,7 +1894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1903,18 +1902,18 @@
         <v>25</v>
       </c>
       <c r="C4" s="8">
-        <v>104.86</v>
+        <v>95.69281677470633</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4">
         <f>C4*0.8</f>
-        <v>83.888000000000005</v>
+        <v>76.554253419765061</v>
       </c>
       <c r="F4">
         <f>C4*1.2</f>
-        <v>125.83199999999999</v>
+        <v>114.8313801296476</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1923,7 +1922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1931,18 +1930,18 @@
         <v>25</v>
       </c>
       <c r="C5" s="8">
-        <v>133.49</v>
+        <v>121.81946136426386</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5">
         <f>C5*0.8</f>
-        <v>106.79200000000002</v>
+        <v>97.455569091411093</v>
       </c>
       <c r="F5">
         <f>C5*1.2</f>
-        <v>160.18800000000002</v>
+        <v>146.18335363711662</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -1951,7 +1950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1959,18 +1958,18 @@
         <v>35</v>
       </c>
       <c r="C6" s="8">
-        <v>1494.01</v>
+        <v>1363.4406977269464</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="E6">
         <f>C6*0.8</f>
-        <v>1195.2080000000001</v>
+        <v>1090.7525581815571</v>
       </c>
       <c r="F6">
         <f>C6*1.2</f>
-        <v>1792.8119999999999</v>
+        <v>1636.1288372723357</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1979,7 +1978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -2013,12 +2012,14 @@
         <v>25</v>
       </c>
       <c r="C8">
+        <f>2002</f>
         <v>2002</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
+        <f>C8</f>
         <v>2002</v>
       </c>
       <c r="F8" t="s">
@@ -2031,7 +2032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2039,18 +2040,18 @@
         <v>35</v>
       </c>
       <c r="C9" s="8">
-        <v>1494.01</v>
+        <v>1363.4406977269464</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9">
         <f>C9*0.8</f>
-        <v>1195.2080000000001</v>
+        <v>1090.7525581815571</v>
       </c>
       <c r="F9">
         <f>C9*1.2</f>
-        <v>1792.8119999999999</v>
+        <v>1636.1288372723357</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -2059,7 +2060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2083,7 +2084,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2109,10 +2110,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
@@ -2122,14 +2123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="6" width="10.7109375" customWidth="1"/>
@@ -2137,7 +2138,7 @@
     <col min="1022" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2367,14 +2368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="6" width="10.7109375" customWidth="1"/>
@@ -2383,7 +2384,7 @@
     <col min="1022" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2454,7 +2455,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2479,7 +2480,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2503,7 +2504,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2527,7 +2528,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2552,7 +2553,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2579,7 +2580,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2603,17 +2604,17 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J12" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+  <sortState ref="A2:G9">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2622,20 +2623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -2658,23 +2659,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2">
-        <v>139.01</v>
+        <v>126.86521516588937</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2">
         <f>B2*0.8</f>
-        <v>111.208</v>
+        <v>101.4921721327115</v>
       </c>
       <c r="E2">
         <f>B2*1.2</f>
-        <v>166.81199999999998</v>
+        <v>152.23825819906725</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2683,23 +2684,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="B3">
-        <v>116.94</v>
+        <v>106.72057071073046</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D9" si="0">B3*0.8</f>
-        <v>93.552000000000007</v>
+        <v>85.376456568584373</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" si="1">B3*1.2</f>
-        <v>140.328</v>
+        <v>128.06468485287655</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -2708,7 +2709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2733,23 +2734,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
       <c r="B5">
-        <v>142.52000000000001</v>
+        <v>130.06917290304321</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>114.01600000000002</v>
+        <v>104.05533832243458</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>171.024</v>
+        <v>156.08300748365184</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2758,23 +2759,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6">
-        <v>183.3</v>
+        <v>167.28496463077394</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>146.64000000000001</v>
+        <v>133.82797170461916</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>219.96</v>
+        <v>200.74195755692872</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -2783,23 +2784,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7">
-        <v>139.46</v>
+        <v>127.27194513012687</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>111.56800000000001</v>
+        <v>101.8175561041015</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>167.352</v>
+        <v>152.72633415615223</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2808,7 +2809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2833,23 +2834,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
       <c r="B9">
-        <v>3.07</v>
+        <v>2.8010648480506681</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.456</v>
+        <v>2.2408518784405347</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>3.6839999999999997</v>
+        <v>3.3612778176608016</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -2864,21 +2865,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3219,14 +3220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="6" width="10.7109375" customWidth="1"/>
@@ -3234,7 +3235,7 @@
     <col min="1022" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>0.86680000000000013</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>0.70620000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>0.86680000000000013</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3363,14 +3364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
@@ -3379,7 +3380,7 @@
     <col min="1023" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>

--- a/data-raw/01_public_parameters.xlsx
+++ b/data-raw/01_public_parameters.xlsx
@@ -793,7 +793,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1803,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,18 +1874,18 @@
         <v>25</v>
       </c>
       <c r="C3" s="8">
-        <v>127.23357437878371</v>
+        <v>139.41999999999999</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3">
         <f>C3*0.8</f>
-        <v>101.78685950302697</v>
+        <v>111.536</v>
       </c>
       <c r="F3">
         <f>C3*1.2</f>
-        <v>152.68028925454044</v>
+        <v>167.30399999999997</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1902,18 +1902,18 @@
         <v>25</v>
       </c>
       <c r="C4" s="8">
-        <v>95.69281677470633</v>
+        <v>104.86</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4">
         <f>C4*0.8</f>
-        <v>76.554253419765061</v>
+        <v>83.888000000000005</v>
       </c>
       <c r="F4">
         <f>C4*1.2</f>
-        <v>114.8313801296476</v>
+        <v>125.83199999999999</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1930,18 +1930,18 @@
         <v>25</v>
       </c>
       <c r="C5" s="8">
-        <v>121.81946136426386</v>
+        <v>133.49</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5">
         <f>C5*0.8</f>
-        <v>97.455569091411093</v>
+        <v>106.79200000000002</v>
       </c>
       <c r="F5">
         <f>C5*1.2</f>
-        <v>146.18335363711662</v>
+        <v>160.18800000000002</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -1958,18 +1958,18 @@
         <v>35</v>
       </c>
       <c r="C6" s="8">
-        <v>1363.4406977269464</v>
+        <v>1494.01</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="E6">
         <f>C6*0.8</f>
-        <v>1090.7525581815571</v>
+        <v>1195.2080000000001</v>
       </c>
       <c r="F6">
         <f>C6*1.2</f>
-        <v>1636.1288372723357</v>
+        <v>1792.8119999999999</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -2012,14 +2012,12 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <f>2002</f>
         <v>2002</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <f>C8</f>
         <v>2002</v>
       </c>
       <c r="F8" t="s">
@@ -2040,18 +2038,18 @@
         <v>35</v>
       </c>
       <c r="C9" s="8">
-        <v>1363.4406977269464</v>
+        <v>1494.01</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9">
         <f>C9*0.8</f>
-        <v>1090.7525581815571</v>
+        <v>1195.2080000000001</v>
       </c>
       <c r="F9">
         <f>C9*1.2</f>
-        <v>1636.1288372723357</v>
+        <v>1792.8119999999999</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -2372,7 +2370,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2625,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,18 +2662,18 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>126.86521516588937</v>
+        <v>139.01</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2">
         <f>B2*0.8</f>
-        <v>101.4921721327115</v>
+        <v>111.208</v>
       </c>
       <c r="E2">
         <f>B2*1.2</f>
-        <v>152.23825819906725</v>
+        <v>166.81199999999998</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2689,18 +2687,18 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>106.72057071073046</v>
+        <v>116.94</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D9" si="0">B3*0.8</f>
-        <v>85.376456568584373</v>
+        <v>93.552000000000007</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" si="1">B3*1.2</f>
-        <v>128.06468485287655</v>
+        <v>140.328</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -2739,18 +2737,18 @@
         <v>49</v>
       </c>
       <c r="B5">
-        <v>130.06917290304321</v>
+        <v>142.52000000000001</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>104.05533832243458</v>
+        <v>114.01600000000002</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>156.08300748365184</v>
+        <v>171.024</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2764,18 +2762,18 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>167.28496463077394</v>
+        <v>183.3</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>133.82797170461916</v>
+        <v>146.64000000000001</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>200.74195755692872</v>
+        <v>219.96</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -2789,18 +2787,18 @@
         <v>52</v>
       </c>
       <c r="B7">
-        <v>127.27194513012687</v>
+        <v>139.46</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>101.8175561041015</v>
+        <v>111.56800000000001</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>152.72633415615223</v>
+        <v>167.352</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2839,18 +2837,18 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>2.8010648480506681</v>
+        <v>3.07</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.2408518784405347</v>
+        <v>2.456</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>3.3612778176608016</v>
+        <v>3.6839999999999997</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -3224,7 +3222,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
